--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E9AFE-5F0A-4C18-B18B-19F8250499A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F239D11F-7571-460D-B9AE-5AF164FA6F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -895,9 +895,6 @@
     <t>9FX6</t>
   </si>
   <si>
-    <t>FPOL2_ELEM</t>
-  </si>
-  <si>
     <t>5FO1</t>
   </si>
   <si>
@@ -2087,6 +2084,9 @@
   </si>
   <si>
     <t>21,41,42,43</t>
+  </si>
+  <si>
+    <t>FPOL_ELEM</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2158,7 +2158,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2347,7 +2346,7 @@
     <tableColumn id="3" xr3:uid="{399500B8-10FF-47AF-B535-9F9D81471501}" name="FPXL"/>
     <tableColumn id="4" xr3:uid="{35991E80-6039-482C-B825-FF666CFCE2C2}" name="FPXL_ELEM"/>
     <tableColumn id="5" xr3:uid="{5CD426B4-D017-441C-9F3C-F2494202EC13}" name="FPOL"/>
-    <tableColumn id="6" xr3:uid="{5FC3FAC5-C8BC-4B3E-B473-0A4E8B8434A1}" name="FPOL2_ELEM"/>
+    <tableColumn id="6" xr3:uid="{5FC3FAC5-C8BC-4B3E-B473-0A4E8B8434A1}" name="FPOL_ELEM"/>
     <tableColumn id="7" xr3:uid="{895CD20F-C577-4389-88C1-D12986070E1F}" name="FP1"/>
     <tableColumn id="8" xr3:uid="{90CE228D-9C6B-463D-A86F-E2A743FC0528}" name="FP1_ELEM" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{59F679B7-8398-4586-A5B4-80EDC73CEBBD}" name="FP2" dataDxfId="5"/>
@@ -2648,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,43 +2708,43 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>21.25</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2" s="6">
         <v>21.25</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>26</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>24</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>23</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>22</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2822,7 +2821,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -2831,11 +2830,11 @@
         <v>108</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
@@ -2859,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2870,7 +2869,7 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2881,7 +2880,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2892,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2923,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A39A7-244A-4C6B-95C4-7CCD2456A709}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,31 +2960,31 @@
         <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>682</v>
       </c>
       <c r="I1" t="s">
         <v>217</v>
       </c>
       <c r="J1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s">
         <v>218</v>
       </c>
       <c r="L1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M1" t="s">
         <v>219</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O1" t="s">
         <v>220</v>
       </c>
       <c r="P1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3017,25 +3016,25 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K2" s="2">
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M2" s="2">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O2" s="2">
         <v>11</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3067,25 +3066,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K3" s="2">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M3" s="2">
         <v>12</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O3" s="2">
         <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -3117,25 +3116,25 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K4" s="2">
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M4" s="2">
         <v>13</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O4" s="2">
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3167,25 +3166,25 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K5" s="2">
         <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M5" s="2">
         <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O5" s="2">
         <v>14</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3217,25 +3216,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K6" s="2">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M6" s="2">
         <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O6" s="2">
         <v>15</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3267,25 +3266,25 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K7" s="2">
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M7" s="2">
         <v>16</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O7" s="2">
         <v>16</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3317,7 +3316,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
@@ -3329,13 +3328,13 @@
         <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3367,25 +3366,25 @@
         <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K9" s="2">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M9" s="2">
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3417,25 +3416,25 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K10" s="2">
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M10" s="2">
         <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3467,25 +3466,25 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K11" s="2">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M11" s="2">
         <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -3517,25 +3516,25 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K12" s="2">
         <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M12" s="2">
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -3567,25 +3566,25 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K13" s="2">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M13" s="2">
         <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -3617,25 +3616,25 @@
         <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K14" s="2">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M14" s="2">
         <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="2">
         <v>31</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3667,25 +3666,25 @@
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K15" s="2">
         <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M15" s="2">
         <v>32</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O15" s="2">
         <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -3717,25 +3716,25 @@
         <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K16" s="2">
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M16" s="2">
         <v>33</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O16" s="2">
         <v>33</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -3767,25 +3766,25 @@
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K17" s="2">
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M17" s="2">
         <v>34</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O17" s="2">
         <v>34</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -3817,25 +3816,25 @@
         <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K18" s="2">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M18" s="2">
         <v>35</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O18" s="2">
         <v>35</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -3867,25 +3866,25 @@
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K19" s="2">
         <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M19" s="2">
         <v>36</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O19" s="2">
         <v>36</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -3917,25 +3916,25 @@
         <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K20" s="2">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M20" s="2">
         <v>41</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O20" s="2">
         <v>41</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -3967,25 +3966,25 @@
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K21" s="2">
         <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M21" s="2">
         <v>42</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O21" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4017,25 +4016,25 @@
         <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K22" s="2">
         <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M22" s="2">
         <v>43</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O22" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -4067,25 +4066,25 @@
         <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K23" s="2">
         <v>44</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M23" s="2">
         <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O23" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -4117,25 +4116,25 @@
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K24" s="2">
         <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M24" s="2">
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O24" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -4167,25 +4166,25 @@
         <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K25" s="2">
         <v>46</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M25" s="2">
         <v>46</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O25" s="2">
         <v>46</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4211,31 +4210,31 @@
         <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26">
         <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K26" s="2">
         <v>51</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M26" s="2">
         <v>51</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O26" s="2">
         <v>51</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -4261,31 +4260,31 @@
         <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I27">
         <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K27" s="2">
         <v>52</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M27" s="2">
         <v>52</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O27" s="2">
         <v>52</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -4311,31 +4310,31 @@
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I28">
         <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K28" s="2">
         <v>53</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M28" s="2">
         <v>53</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O28" s="2">
         <v>53</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -4361,31 +4360,31 @@
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I29">
         <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K29" s="2">
         <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M29" s="2">
         <v>54</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O29" s="2">
         <v>54</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -4411,31 +4410,31 @@
         <v>55</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I30">
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K30" s="2">
         <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M30" s="2">
         <v>55</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O30" s="2">
         <v>55</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4461,31 +4460,31 @@
         <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I31">
         <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K31" s="2">
         <v>56</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M31" s="2">
         <v>56</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O31" s="2">
         <v>56</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -4511,31 +4510,31 @@
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I32">
         <v>61</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K32" s="2">
         <v>61</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M32" s="2">
         <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O32" s="2">
         <v>61</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -4561,31 +4560,31 @@
         <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I33">
         <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K33" s="2">
         <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M33" s="2">
         <v>62</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O33" s="2">
         <v>62</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -4611,31 +4610,31 @@
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I34">
         <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K34" s="2">
         <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M34" s="2">
         <v>63</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O34" s="2">
         <v>63</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -4661,31 +4660,31 @@
         <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I35">
         <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K35" s="2">
         <v>64</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M35" s="2">
         <v>64</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O35" s="2">
         <v>64</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -4711,31 +4710,31 @@
         <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I36">
         <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K36" s="2">
         <v>65</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M36" s="2">
         <v>65</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O36" s="2">
         <v>65</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -4761,31 +4760,31 @@
         <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I37">
         <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K37" s="2">
         <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M37" s="2">
         <v>66</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O37" s="2">
         <v>66</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4811,31 +4810,31 @@
         <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I38">
         <v>71</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K38" s="2">
         <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M38" s="2">
         <v>71</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O38" s="2">
         <v>71</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -4861,31 +4860,31 @@
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I39">
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K39" s="2">
         <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M39" s="2">
         <v>72</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O39" s="2">
         <v>72</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -4911,31 +4910,31 @@
         <v>73</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I40">
         <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K40" s="2">
         <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M40" s="2">
         <v>73</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O40" s="2">
         <v>73</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -4961,31 +4960,31 @@
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I41">
         <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K41" s="2">
         <v>74</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2">
         <v>74</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O41" s="2">
         <v>74</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -5011,31 +5010,31 @@
         <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I42">
         <v>75</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K42" s="2">
         <v>75</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M42" s="2">
         <v>75</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O42" s="2">
         <v>75</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5061,31 +5060,31 @@
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I43">
         <v>76</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K43" s="2">
         <v>76</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M43" s="2">
         <v>76</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O43" s="2">
         <v>76</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5111,31 +5110,31 @@
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I44">
         <v>81</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K44" s="2">
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M44" s="2">
         <v>81</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O44" s="2">
         <v>81</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -5161,31 +5160,31 @@
         <v>82</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I45">
         <v>82</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K45" s="2">
         <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M45" s="2">
         <v>82</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O45" s="2">
         <v>82</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -5211,31 +5210,31 @@
         <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I46">
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K46" s="2">
         <v>83</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2">
         <v>83</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O46" s="2">
         <v>83</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -5261,31 +5260,31 @@
         <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I47">
         <v>84</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K47" s="2">
         <v>84</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M47" s="2">
         <v>84</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O47" s="2">
         <v>84</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -5311,31 +5310,31 @@
         <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I48">
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K48" s="2">
         <v>85</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M48" s="2">
         <v>85</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O48" s="2">
         <v>85</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -5361,31 +5360,31 @@
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I49">
         <v>86</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K49" s="2">
         <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M49" s="2">
         <v>86</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O49" s="2">
         <v>86</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -5411,31 +5410,31 @@
         <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I50">
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K50" s="2">
         <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2">
         <v>91</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O50" s="2">
         <v>91</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -5461,31 +5460,31 @@
         <v>92</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I51">
         <v>92</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K51" s="2">
         <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M51" s="2">
         <v>92</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O51" s="2">
         <v>92</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -5511,31 +5510,31 @@
         <v>93</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I52">
         <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K52" s="2">
         <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M52" s="2">
         <v>93</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O52" s="2">
         <v>93</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -5561,31 +5560,31 @@
         <v>94</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I53">
         <v>94</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K53" s="2">
         <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M53" s="2">
         <v>94</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O53" s="2">
         <v>94</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -5611,31 +5610,31 @@
         <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I54">
         <v>95</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K54" s="2">
         <v>95</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M54" s="2">
         <v>95</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O54" s="2">
         <v>95</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -5661,31 +5660,31 @@
         <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I55">
         <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K55" s="2">
         <v>96</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M55" s="2">
         <v>96</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O55" s="2">
         <v>96</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -5700,25 +5699,25 @@
         <v>101</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K56" s="2">
         <v>101</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M56" s="2">
         <v>101</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O56" s="2">
         <v>101</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -5733,25 +5732,25 @@
         <v>102</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K57" s="2">
         <v>102</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M57" s="2">
         <v>102</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O57" s="2">
         <v>102</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -5766,25 +5765,25 @@
         <v>103</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K58" s="2">
         <v>103</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M58" s="2">
         <v>103</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O58" s="2">
         <v>103</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -5799,25 +5798,25 @@
         <v>104</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K59" s="2">
         <v>104</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M59" s="2">
         <v>104</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O59" s="2">
         <v>104</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -5832,25 +5831,25 @@
         <v>105</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K60" s="2">
         <v>105</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M60" s="2">
         <v>105</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O60" s="2">
         <v>105</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -5865,25 +5864,25 @@
         <v>106</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K61" s="2">
         <v>106</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M61" s="2">
         <v>106</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O61" s="2">
         <v>106</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -5898,25 +5897,25 @@
         <v>111</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K62" s="2">
         <v>111</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M62" s="2">
         <v>111</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O62" s="2">
         <v>111</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -5931,25 +5930,25 @@
         <v>112</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K63" s="2">
         <v>112</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M63" s="2">
         <v>112</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O63" s="2">
         <v>112</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -5964,25 +5963,25 @@
         <v>113</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K64" s="2">
         <v>113</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M64" s="2">
         <v>113</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O64" s="2">
         <v>113</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
@@ -5997,25 +5996,25 @@
         <v>114</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K65" s="2">
         <v>114</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M65" s="2">
         <v>114</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O65" s="2">
         <v>114</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
@@ -6030,25 +6029,25 @@
         <v>115</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K66" s="2">
         <v>115</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M66" s="2">
         <v>115</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O66" s="2">
         <v>115</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
@@ -6063,25 +6062,25 @@
         <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K67" s="2">
         <v>116</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M67" s="2">
         <v>116</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O67" s="2">
         <v>116</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
@@ -6096,25 +6095,25 @@
         <v>121</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K68" s="2">
         <v>121</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M68" s="2">
         <v>121</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O68" s="2">
         <v>121</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
@@ -6129,25 +6128,25 @@
         <v>122</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K69" s="2">
         <v>122</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M69" s="2">
         <v>122</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O69" s="2">
         <v>122</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
@@ -6162,25 +6161,25 @@
         <v>123</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K70" s="2">
         <v>123</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M70" s="2">
         <v>123</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O70" s="2">
         <v>123</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
@@ -6195,25 +6194,25 @@
         <v>124</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K71" s="2">
         <v>124</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M71" s="2">
         <v>124</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O71" s="2">
         <v>124</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
@@ -6228,25 +6227,25 @@
         <v>125</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K72" s="2">
         <v>125</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M72" s="2">
         <v>125</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O72" s="2">
         <v>125</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
@@ -6261,25 +6260,25 @@
         <v>126</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K73" s="2">
         <v>126</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M73" s="2">
         <v>126</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O73" s="2">
         <v>126</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
@@ -6294,25 +6293,25 @@
         <v>131</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K74" s="2">
         <v>131</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M74" s="2">
         <v>131</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O74" s="2">
         <v>131</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
@@ -6327,25 +6326,25 @@
         <v>132</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K75" s="2">
         <v>132</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M75" s="2">
         <v>132</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O75" s="2">
         <v>132</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
@@ -6360,25 +6359,25 @@
         <v>133</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K76" s="2">
         <v>133</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M76" s="2">
         <v>133</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O76" s="2">
         <v>133</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
@@ -6393,25 +6392,25 @@
         <v>134</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K77" s="2">
         <v>134</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M77" s="2">
         <v>134</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O77" s="2">
         <v>134</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
@@ -6426,25 +6425,25 @@
         <v>135</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K78" s="2">
         <v>135</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M78" s="2">
         <v>135</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O78" s="2">
         <v>135</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
@@ -6459,25 +6458,25 @@
         <v>136</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K79" s="2">
         <v>136</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M79" s="2">
         <v>136</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O79" s="2">
         <v>136</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
@@ -6492,25 +6491,25 @@
         <v>141</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K80" s="2">
         <v>141</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M80" s="2">
         <v>141</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O80" s="2">
         <v>141</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
@@ -6525,25 +6524,25 @@
         <v>142</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K81" s="2">
         <v>142</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M81" s="2">
         <v>142</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O81" s="2">
         <v>142</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
@@ -6558,25 +6557,25 @@
         <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K82" s="2">
         <v>143</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M82" s="2">
         <v>143</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O82" s="2">
         <v>143</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
@@ -6591,25 +6590,25 @@
         <v>144</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K83" s="2">
         <v>144</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M83" s="2">
         <v>144</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O83" s="2">
         <v>144</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
@@ -6624,25 +6623,25 @@
         <v>145</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K84" s="2">
         <v>145</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M84" s="2">
         <v>145</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O84" s="2">
         <v>145</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
@@ -6657,25 +6656,25 @@
         <v>146</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K85" s="2">
         <v>146</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M85" s="2">
         <v>146</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O85" s="2">
         <v>146</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
@@ -6690,25 +6689,25 @@
         <v>151</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K86" s="2">
         <v>151</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M86" s="2">
         <v>151</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O86" s="2">
         <v>151</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
@@ -6723,25 +6722,25 @@
         <v>152</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K87" s="2">
         <v>152</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M87" s="2">
         <v>152</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O87" s="2">
         <v>152</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
@@ -6756,25 +6755,25 @@
         <v>153</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K88" s="2">
         <v>153</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M88" s="2">
         <v>153</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O88" s="2">
         <v>153</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
@@ -6789,25 +6788,25 @@
         <v>154</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K89" s="2">
         <v>154</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M89" s="2">
         <v>154</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O89" s="2">
         <v>154</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
@@ -6822,25 +6821,25 @@
         <v>155</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K90" s="2">
         <v>155</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M90" s="2">
         <v>155</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O90" s="2">
         <v>155</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
@@ -6855,25 +6854,25 @@
         <v>156</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K91" s="2">
         <v>156</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M91" s="2">
         <v>156</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O91" s="2">
         <v>156</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F239D11F-7571-460D-B9AE-5AF164FA6F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B334DA-2108-4CFB-845F-DB8547AD0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="1440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="682">
   <si>
     <t>1FO1</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>RAM8</t>
-  </si>
-  <si>
-    <t>2BAR1-6</t>
   </si>
   <si>
     <t>soft_pink</t>
@@ -2647,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,28 +2680,28 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
         <v>217</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>218</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>219</v>
-      </c>
-      <c r="M1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2720,14 +2717,12 @@
       <c r="D2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6">
         <v>21.25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H2" s="6">
         <v>21.25</v>
@@ -2821,7 +2816,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -2830,11 +2825,11 @@
         <v>108</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
@@ -2858,7 +2853,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2869,7 +2864,7 @@
         <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2880,7 +2875,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2891,7 +2886,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2922,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A39A7-244A-4C6B-95C4-7CCD2456A709}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2939,52 +2934,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
         <v>221</v>
       </c>
-      <c r="F1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" t="s">
-        <v>222</v>
-      </c>
       <c r="H1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
         <v>217</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>315</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>218</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>219</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>317</v>
-      </c>
-      <c r="O1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -2998,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -3016,25 +3011,25 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K2" s="2">
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M2" s="2">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O2" s="2">
         <v>11</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3048,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -3066,25 +3061,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K3" s="2">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M3" s="2">
         <v>12</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O3" s="2">
         <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -3098,7 +3093,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -3116,25 +3111,25 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K4" s="2">
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M4" s="2">
         <v>13</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O4" s="2">
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3148,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -3166,25 +3161,25 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K5" s="2">
         <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M5" s="2">
         <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O5" s="2">
         <v>14</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3198,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -3216,25 +3211,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K6" s="2">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M6" s="2">
         <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O6" s="2">
         <v>15</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3248,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -3266,25 +3261,25 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K7" s="2">
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M7" s="2">
         <v>16</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O7" s="2">
         <v>16</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3298,7 +3293,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -3316,25 +3311,25 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="2">
         <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3348,7 +3343,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>22</v>
@@ -3366,25 +3361,25 @@
         <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K9" s="2">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M9" s="2">
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -3398,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -3416,25 +3411,25 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K10" s="2">
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M10" s="2">
         <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3448,7 +3443,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11">
         <v>24</v>
@@ -3466,25 +3461,25 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K11" s="2">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M11" s="2">
         <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -3498,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12">
         <v>25</v>
@@ -3516,25 +3511,25 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K12" s="2">
         <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M12" s="2">
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -3548,7 +3543,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>26</v>
@@ -3566,25 +3561,25 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K13" s="2">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M13" s="2">
         <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -3598,7 +3593,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -3616,25 +3611,25 @@
         <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K14" s="2">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M14" s="2">
         <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O14" s="2">
         <v>31</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3648,7 +3643,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>32</v>
@@ -3666,25 +3661,25 @@
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K15" s="2">
         <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M15" s="2">
         <v>32</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="2">
         <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -3698,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>33</v>
@@ -3716,25 +3711,25 @@
         <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K16" s="2">
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M16" s="2">
         <v>33</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O16" s="2">
         <v>33</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -3748,7 +3743,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17">
         <v>34</v>
@@ -3766,25 +3761,25 @@
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K17" s="2">
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M17" s="2">
         <v>34</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O17" s="2">
         <v>34</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -3798,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>35</v>
@@ -3816,25 +3811,25 @@
         <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K18" s="2">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M18" s="2">
         <v>35</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O18" s="2">
         <v>35</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -3848,7 +3843,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>36</v>
@@ -3866,25 +3861,25 @@
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K19" s="2">
         <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M19" s="2">
         <v>36</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O19" s="2">
         <v>36</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -3898,7 +3893,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>41</v>
@@ -3916,25 +3911,25 @@
         <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K20" s="2">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M20" s="2">
         <v>41</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O20" s="2">
         <v>41</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -3948,7 +3943,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>42</v>
@@ -3966,25 +3961,25 @@
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K21" s="2">
         <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M21" s="2">
         <v>42</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -3998,7 +3993,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>43</v>
@@ -4016,25 +4011,25 @@
         <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K22" s="2">
         <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M22" s="2">
         <v>43</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O22" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -4048,7 +4043,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>44</v>
@@ -4066,25 +4061,25 @@
         <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K23" s="2">
         <v>44</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M23" s="2">
         <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O23" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -4098,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>45</v>
@@ -4116,25 +4111,25 @@
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K24" s="2">
         <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M24" s="2">
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O24" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -4148,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25">
         <v>46</v>
@@ -4166,25 +4161,25 @@
         <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K25" s="2">
         <v>46</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M25" s="2">
         <v>46</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O25" s="2">
         <v>46</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4192,49 +4187,49 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26">
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G26">
         <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I26">
         <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K26" s="2">
         <v>51</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M26" s="2">
         <v>51</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O26" s="2">
         <v>51</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -4242,49 +4237,49 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27">
         <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27">
         <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I27">
         <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K27" s="2">
         <v>52</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M27" s="2">
         <v>52</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O27" s="2">
         <v>52</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -4292,49 +4287,49 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28">
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28">
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28">
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I28">
         <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K28" s="2">
         <v>53</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M28" s="2">
         <v>53</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O28" s="2">
         <v>53</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -4342,49 +4337,49 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29">
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G29">
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I29">
         <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K29" s="2">
         <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M29" s="2">
         <v>54</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O29" s="2">
         <v>54</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -4392,49 +4387,49 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30">
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30">
         <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30">
         <v>55</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I30">
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K30" s="2">
         <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M30" s="2">
         <v>55</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O30" s="2">
         <v>55</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4442,49 +4437,49 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C31">
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31">
         <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I31">
         <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K31" s="2">
         <v>56</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M31" s="2">
         <v>56</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O31" s="2">
         <v>56</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -4492,49 +4487,49 @@
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32">
         <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G32">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I32">
         <v>61</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K32" s="2">
         <v>61</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M32" s="2">
         <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O32" s="2">
         <v>61</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -4542,49 +4537,49 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33">
         <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I33">
         <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K33" s="2">
         <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M33" s="2">
         <v>62</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O33" s="2">
         <v>62</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -4592,49 +4587,49 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34">
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34">
         <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34">
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I34">
         <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K34" s="2">
         <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M34" s="2">
         <v>63</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O34" s="2">
         <v>63</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -4642,49 +4637,49 @@
         <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35">
         <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35">
         <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G35">
         <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I35">
         <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K35" s="2">
         <v>64</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M35" s="2">
         <v>64</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O35" s="2">
         <v>64</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -4692,49 +4687,49 @@
         <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C36">
         <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36">
         <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I36">
         <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K36" s="2">
         <v>65</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M36" s="2">
         <v>65</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O36" s="2">
         <v>65</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -4742,49 +4737,49 @@
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37">
         <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37">
         <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37">
         <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I37">
         <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K37" s="2">
         <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M37" s="2">
         <v>66</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O37" s="2">
         <v>66</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4792,49 +4787,49 @@
         <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38">
         <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38">
         <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G38">
         <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I38">
         <v>71</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K38" s="2">
         <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M38" s="2">
         <v>71</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O38" s="2">
         <v>71</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -4842,49 +4837,49 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39">
         <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39">
         <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39">
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I39">
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K39" s="2">
         <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M39" s="2">
         <v>72</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O39" s="2">
         <v>72</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -4892,49 +4887,49 @@
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40">
         <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40">
         <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40">
         <v>73</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I40">
         <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K40" s="2">
         <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M40" s="2">
         <v>73</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O40" s="2">
         <v>73</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -4942,49 +4937,49 @@
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C41">
         <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E41">
         <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41">
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I41">
         <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K41" s="2">
         <v>74</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M41" s="2">
         <v>74</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O41" s="2">
         <v>74</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -4992,49 +4987,49 @@
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C42">
         <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E42">
         <v>75</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G42">
         <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I42">
         <v>75</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K42" s="2">
         <v>75</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M42" s="2">
         <v>75</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O42" s="2">
         <v>75</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5042,49 +5037,49 @@
         <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43">
         <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E43">
         <v>76</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G43">
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I43">
         <v>76</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K43" s="2">
         <v>76</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M43" s="2">
         <v>76</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O43" s="2">
         <v>76</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5092,49 +5087,49 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44">
         <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G44">
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I44">
         <v>81</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K44" s="2">
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M44" s="2">
         <v>81</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O44" s="2">
         <v>81</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -5142,49 +5137,49 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45">
         <v>82</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45">
         <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G45">
         <v>82</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I45">
         <v>82</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K45" s="2">
         <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M45" s="2">
         <v>82</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O45" s="2">
         <v>82</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -5192,49 +5187,49 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46">
         <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46">
         <v>83</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46">
         <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I46">
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K46" s="2">
         <v>83</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M46" s="2">
         <v>83</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O46" s="2">
         <v>83</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -5242,49 +5237,49 @@
         <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47">
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E47">
         <v>84</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G47">
         <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I47">
         <v>84</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K47" s="2">
         <v>84</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M47" s="2">
         <v>84</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O47" s="2">
         <v>84</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -5292,49 +5287,49 @@
         <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48">
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48">
         <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G48">
         <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I48">
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K48" s="2">
         <v>85</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M48" s="2">
         <v>85</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O48" s="2">
         <v>85</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -5342,49 +5337,49 @@
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C49">
         <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49">
         <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G49">
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I49">
         <v>86</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K49" s="2">
         <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M49" s="2">
         <v>86</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O49" s="2">
         <v>86</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -5392,49 +5387,49 @@
         <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C50">
         <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50">
         <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G50">
         <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I50">
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K50" s="2">
         <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M50" s="2">
         <v>91</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O50" s="2">
         <v>91</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -5442,49 +5437,49 @@
         <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51">
         <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51">
         <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G51">
         <v>92</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I51">
         <v>92</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K51" s="2">
         <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M51" s="2">
         <v>92</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O51" s="2">
         <v>92</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -5492,49 +5487,49 @@
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52">
         <v>93</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E52">
         <v>93</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G52">
         <v>93</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I52">
         <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K52" s="2">
         <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M52" s="2">
         <v>93</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O52" s="2">
         <v>93</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -5542,49 +5537,49 @@
         <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53">
         <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53">
         <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G53">
         <v>94</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I53">
         <v>94</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K53" s="2">
         <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M53" s="2">
         <v>94</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O53" s="2">
         <v>94</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -5592,49 +5587,49 @@
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54">
         <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E54">
         <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G54">
         <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I54">
         <v>95</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K54" s="2">
         <v>95</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M54" s="2">
         <v>95</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O54" s="2">
         <v>95</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -5642,49 +5637,49 @@
         <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C55">
         <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55">
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55">
         <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I55">
         <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K55" s="2">
         <v>96</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M55" s="2">
         <v>96</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O55" s="2">
         <v>96</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -5693,31 +5688,31 @@
         <v>101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I56">
         <v>101</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K56" s="2">
         <v>101</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M56" s="2">
         <v>101</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O56" s="2">
         <v>101</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -5726,31 +5721,31 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I57">
         <v>102</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K57" s="2">
         <v>102</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M57" s="2">
         <v>102</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O57" s="2">
         <v>102</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -5759,31 +5754,31 @@
         <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I58">
         <v>103</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K58" s="2">
         <v>103</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M58" s="2">
         <v>103</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O58" s="2">
         <v>103</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -5792,31 +5787,31 @@
         <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I59">
         <v>104</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K59" s="2">
         <v>104</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M59" s="2">
         <v>104</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O59" s="2">
         <v>104</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -5825,31 +5820,31 @@
         <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I60">
         <v>105</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K60" s="2">
         <v>105</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M60" s="2">
         <v>105</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O60" s="2">
         <v>105</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -5858,31 +5853,31 @@
         <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61">
         <v>106</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K61" s="2">
         <v>106</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M61" s="2">
         <v>106</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O61" s="2">
         <v>106</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -5891,31 +5886,31 @@
         <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62">
         <v>111</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K62" s="2">
         <v>111</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M62" s="2">
         <v>111</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O62" s="2">
         <v>111</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -5924,31 +5919,31 @@
         <v>112</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I63">
         <v>112</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K63" s="2">
         <v>112</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M63" s="2">
         <v>112</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O63" s="2">
         <v>112</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -5957,31 +5952,31 @@
         <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I64">
         <v>113</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K64" s="2">
         <v>113</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M64" s="2">
         <v>113</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O64" s="2">
         <v>113</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
@@ -5990,31 +5985,31 @@
         <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I65">
         <v>114</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K65" s="2">
         <v>114</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M65" s="2">
         <v>114</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O65" s="2">
         <v>114</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
@@ -6023,31 +6018,31 @@
         <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I66">
         <v>115</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K66" s="2">
         <v>115</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2">
         <v>115</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O66" s="2">
         <v>115</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
@@ -6056,31 +6051,31 @@
         <v>116</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I67">
         <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K67" s="2">
         <v>116</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M67" s="2">
         <v>116</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O67" s="2">
         <v>116</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
@@ -6089,31 +6084,31 @@
         <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I68">
         <v>121</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K68" s="2">
         <v>121</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M68" s="2">
         <v>121</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O68" s="2">
         <v>121</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
@@ -6122,31 +6117,31 @@
         <v>122</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I69">
         <v>122</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K69" s="2">
         <v>122</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M69" s="2">
         <v>122</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O69" s="2">
         <v>122</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
@@ -6155,31 +6150,31 @@
         <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I70">
         <v>123</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K70" s="2">
         <v>123</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M70" s="2">
         <v>123</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O70" s="2">
         <v>123</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
@@ -6188,31 +6183,31 @@
         <v>124</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I71">
         <v>124</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K71" s="2">
         <v>124</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M71" s="2">
         <v>124</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O71" s="2">
         <v>124</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
@@ -6221,31 +6216,31 @@
         <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I72">
         <v>125</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K72" s="2">
         <v>125</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M72" s="2">
         <v>125</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O72" s="2">
         <v>125</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
@@ -6254,31 +6249,31 @@
         <v>126</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I73">
         <v>126</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K73" s="2">
         <v>126</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M73" s="2">
         <v>126</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O73" s="2">
         <v>126</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
@@ -6287,31 +6282,31 @@
         <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I74">
         <v>131</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K74" s="2">
         <v>131</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M74" s="2">
         <v>131</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O74" s="2">
         <v>131</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
@@ -6320,31 +6315,31 @@
         <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I75">
         <v>132</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K75" s="2">
         <v>132</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M75" s="2">
         <v>132</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O75" s="2">
         <v>132</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
@@ -6353,31 +6348,31 @@
         <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I76">
         <v>133</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K76" s="2">
         <v>133</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M76" s="2">
         <v>133</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O76" s="2">
         <v>133</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
@@ -6386,31 +6381,31 @@
         <v>134</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I77">
         <v>134</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K77" s="2">
         <v>134</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M77" s="2">
         <v>134</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O77" s="2">
         <v>134</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
@@ -6419,31 +6414,31 @@
         <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78">
         <v>135</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K78" s="2">
         <v>135</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M78" s="2">
         <v>135</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O78" s="2">
         <v>135</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
@@ -6452,31 +6447,31 @@
         <v>136</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I79">
         <v>136</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K79" s="2">
         <v>136</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M79" s="2">
         <v>136</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O79" s="2">
         <v>136</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
@@ -6485,31 +6480,31 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80">
         <v>141</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K80" s="2">
         <v>141</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M80" s="2">
         <v>141</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O80" s="2">
         <v>141</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
@@ -6518,31 +6513,31 @@
         <v>142</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I81">
         <v>142</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K81" s="2">
         <v>142</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M81" s="2">
         <v>142</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O81" s="2">
         <v>142</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
@@ -6551,31 +6546,31 @@
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I82">
         <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K82" s="2">
         <v>143</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M82" s="2">
         <v>143</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O82" s="2">
         <v>143</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
@@ -6584,31 +6579,31 @@
         <v>144</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I83">
         <v>144</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K83" s="2">
         <v>144</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M83" s="2">
         <v>144</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O83" s="2">
         <v>144</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
@@ -6617,31 +6612,31 @@
         <v>145</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I84">
         <v>145</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K84" s="2">
         <v>145</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M84" s="2">
         <v>145</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O84" s="2">
         <v>145</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
@@ -6650,31 +6645,31 @@
         <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I85">
         <v>146</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K85" s="2">
         <v>146</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M85" s="2">
         <v>146</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O85" s="2">
         <v>146</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
@@ -6683,31 +6678,31 @@
         <v>151</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I86">
         <v>151</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K86" s="2">
         <v>151</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M86" s="2">
         <v>151</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O86" s="2">
         <v>151</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
@@ -6716,31 +6711,31 @@
         <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I87">
         <v>152</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K87" s="2">
         <v>152</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M87" s="2">
         <v>152</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O87" s="2">
         <v>152</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
@@ -6749,31 +6744,31 @@
         <v>153</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I88">
         <v>153</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K88" s="2">
         <v>153</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M88" s="2">
         <v>153</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O88" s="2">
         <v>153</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
@@ -6782,31 +6777,31 @@
         <v>154</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I89">
         <v>154</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K89" s="2">
         <v>154</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M89" s="2">
         <v>154</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O89" s="2">
         <v>154</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
@@ -6815,31 +6810,31 @@
         <v>155</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I90">
         <v>155</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K90" s="2">
         <v>155</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M90" s="2">
         <v>155</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O90" s="2">
         <v>155</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
@@ -6848,31 +6843,31 @@
         <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I91">
         <v>156</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K91" s="2">
         <v>156</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M91" s="2">
         <v>156</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O91" s="2">
         <v>156</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -6910,7 +6905,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6918,7 +6913,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6934,7 +6929,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6950,7 +6945,7 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -6966,7 +6961,7 @@
         <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -6974,7 +6969,7 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -6990,7 +6985,7 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B334DA-2108-4CFB-845F-DB8547AD0075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA7996-827A-437A-911A-A15873B608B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="1440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="687">
   <si>
     <t>1FO1</t>
   </si>
@@ -2084,6 +2084,21 @@
   </si>
   <si>
     <t>FPOL_ELEM</t>
+  </si>
+  <si>
+    <t>51,22,23,24</t>
+  </si>
+  <si>
+    <t>2BAR2-4</t>
+  </si>
+  <si>
+    <t>5BAR1-6</t>
+  </si>
+  <si>
+    <t>51,52,56</t>
+  </si>
+  <si>
+    <t>51,52,56,63,74,75</t>
   </si>
 </sst>
 </file>
@@ -2645,25 +2660,25 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="14" width="10.5546875" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2741,7 +2756,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2754,8 +2769,23 @@
       <c r="D3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>683</v>
+      </c>
+      <c r="G3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I3">
+        <v>25.26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>677</v>
+      </c>
+      <c r="M3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2768,8 +2798,26 @@
       <c r="D4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G4" t="s">
+        <v>686</v>
+      </c>
+      <c r="J4" t="s">
+        <v>685</v>
+      </c>
+      <c r="K4">
+        <v>63</v>
+      </c>
+      <c r="L4">
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2783,7 +2831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2797,7 +2845,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>93</v>
       </c>
@@ -2848,7 +2896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2859,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -2870,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2907,7 +2955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2921,18 +2969,18 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -2982,7 +3030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -3032,7 +3080,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3082,7 +3130,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3132,7 +3180,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3182,7 +3230,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3232,7 +3280,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3282,7 +3330,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -3332,7 +3380,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -3382,7 +3430,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3432,7 +3480,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
@@ -3482,7 +3530,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -3532,7 +3580,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -3582,7 +3630,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -3632,7 +3680,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -3682,7 +3730,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -3732,7 +3780,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -3782,7 +3830,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35</v>
       </c>
@@ -3832,7 +3880,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -3882,7 +3930,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -3932,7 +3980,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -3982,7 +4030,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -4032,7 +4080,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -4082,7 +4130,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
@@ -4132,7 +4180,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -4182,7 +4230,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>51</v>
       </c>
@@ -4232,7 +4280,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
@@ -4282,7 +4330,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53</v>
       </c>
@@ -4332,7 +4380,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>54</v>
       </c>
@@ -4382,7 +4430,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>55</v>
       </c>
@@ -4432,7 +4480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -4482,7 +4530,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>61</v>
       </c>
@@ -4532,7 +4580,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>62</v>
       </c>
@@ -4582,7 +4630,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>63</v>
       </c>
@@ -4632,7 +4680,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>64</v>
       </c>
@@ -4682,7 +4730,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>65</v>
       </c>
@@ -4732,7 +4780,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>66</v>
       </c>
@@ -4782,7 +4830,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -4832,7 +4880,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -4882,7 +4930,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73</v>
       </c>
@@ -4932,7 +4980,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>74</v>
       </c>
@@ -4982,7 +5030,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>75</v>
       </c>
@@ -5032,7 +5080,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>76</v>
       </c>
@@ -5082,7 +5130,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>81</v>
       </c>
@@ -5132,7 +5180,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>82</v>
       </c>
@@ -5182,7 +5230,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>83</v>
       </c>
@@ -5232,7 +5280,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>84</v>
       </c>
@@ -5282,7 +5330,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>85</v>
       </c>
@@ -5332,7 +5380,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>86</v>
       </c>
@@ -5382,7 +5430,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>91</v>
       </c>
@@ -5432,7 +5480,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>92</v>
       </c>
@@ -5482,7 +5530,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>93</v>
       </c>
@@ -5532,7 +5580,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>94</v>
       </c>
@@ -5582,7 +5630,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -5632,7 +5680,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>96</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56">
         <v>101</v>
@@ -5715,7 +5763,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57">
         <v>102</v>
@@ -5748,7 +5796,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58">
         <v>103</v>
@@ -5781,7 +5829,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59">
         <v>104</v>
@@ -5814,7 +5862,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60">
         <v>105</v>
@@ -5847,7 +5895,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61">
         <v>106</v>
@@ -5880,7 +5928,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62">
         <v>111</v>
@@ -5913,7 +5961,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63">
         <v>112</v>
@@ -5946,7 +5994,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64">
         <v>113</v>
@@ -5979,7 +6027,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65">
         <v>114</v>
@@ -6012,7 +6060,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66">
         <v>115</v>
@@ -6045,7 +6093,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67">
         <v>116</v>
@@ -6078,7 +6126,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68">
         <v>121</v>
@@ -6111,7 +6159,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69">
         <v>122</v>
@@ -6144,7 +6192,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70">
         <v>123</v>
@@ -6177,7 +6225,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71">
         <v>124</v>
@@ -6210,7 +6258,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72">
         <v>125</v>
@@ -6243,7 +6291,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73">
         <v>126</v>
@@ -6276,7 +6324,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74">
         <v>131</v>
@@ -6309,7 +6357,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75">
         <v>132</v>
@@ -6342,7 +6390,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76">
         <v>133</v>
@@ -6375,7 +6423,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77">
         <v>134</v>
@@ -6408,7 +6456,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78">
         <v>135</v>
@@ -6441,7 +6489,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79">
         <v>136</v>
@@ -6474,7 +6522,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80">
         <v>141</v>
@@ -6507,7 +6555,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81">
         <v>142</v>
@@ -6540,7 +6588,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82">
         <v>143</v>
@@ -6573,7 +6621,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83">
         <v>144</v>
@@ -6606,7 +6654,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84">
         <v>145</v>
@@ -6639,7 +6687,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85">
         <v>146</v>
@@ -6672,7 +6720,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86">
         <v>151</v>
@@ -6705,7 +6753,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87">
         <v>152</v>
@@ -6738,7 +6786,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88">
         <v>153</v>
@@ -6771,7 +6819,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89">
         <v>154</v>
@@ -6804,7 +6852,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90">
         <v>155</v>
@@ -6837,7 +6885,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91">
         <v>156</v>
@@ -6887,12 +6935,12 @@
       <selection activeCell="B13" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -6900,7 +6948,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -6908,7 +6956,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -6916,7 +6964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6924,7 +6972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -6932,7 +6980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6940,7 +6988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -6948,7 +6996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -6956,7 +7004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -6964,7 +7012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -6972,7 +7020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -6980,7 +7028,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -6988,7 +7036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -7012,13 +7060,13 @@
       <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7026,7 +7074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -7034,7 +7082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -7042,7 +7090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -7050,7 +7098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -7058,7 +7106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -7066,7 +7114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -7074,7 +7122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -7082,7 +7130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -7090,7 +7138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA7996-827A-437A-911A-A15873B608B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F0645-3218-459F-A59A-B6D74BB8BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="4770" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="688">
   <si>
     <t>1FO1</t>
   </si>
@@ -310,9 +310,6 @@
     <t>4FX6</t>
   </si>
   <si>
-    <t>tone</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -358,12 +355,6 @@
     <t>gold_3d</t>
   </si>
   <si>
-    <t>red_3d</t>
-  </si>
-  <si>
-    <t>purple_3d</t>
-  </si>
-  <si>
     <t>RAM2</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>seafoam</t>
   </si>
   <si>
-    <t>pistachio</t>
-  </si>
-  <si>
     <t>honey</t>
   </si>
   <si>
@@ -2099,6 +2087,21 @@
   </si>
   <si>
     <t>51,52,56,63,74,75</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>blue_gradient</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>plum</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2379,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}" name="Таблица3" displayName="Таблица3" ref="A1:B13" totalsRowShown="0">
   <autoFilter ref="A1:B13" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07E6B688-4FE1-47C4-9618-786764A7C3A6}" name="tone"/>
+    <tableColumn id="1" xr3:uid="{07E6B688-4FE1-47C4-9618-786764A7C3A6}" name="ton"/>
     <tableColumn id="2" xr3:uid="{FD6C67DB-A177-4EFF-8E77-834E4A6481F8}" name="color"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2659,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,28 +2698,28 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2730,14 +2733,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6">
         <v>21.25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="H2" s="6">
         <v>21.25</v>
@@ -2767,19 +2770,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I3">
         <v>25.26</v>
       </c>
       <c r="J3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M3">
         <v>51</v>
@@ -2796,16 +2799,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K4">
         <v>63</v>
@@ -2828,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2856,28 +2859,28 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
@@ -2898,10 +2901,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2909,10 +2912,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2920,10 +2923,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2931,10 +2934,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2966,7 +2969,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,52 +2985,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" t="s">
-        <v>681</v>
-      </c>
-      <c r="I1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M1" t="s">
-        <v>218</v>
-      </c>
       <c r="N1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3041,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -3059,25 +3062,25 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K2" s="2">
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M2" s="2">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O2" s="2">
         <v>11</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3091,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -3109,25 +3112,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K3" s="2">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M3" s="2">
         <v>12</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O3" s="2">
         <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3141,7 +3144,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -3159,25 +3162,25 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K4" s="2">
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M4" s="2">
         <v>13</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O4" s="2">
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3191,7 +3194,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -3209,25 +3212,25 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K5" s="2">
         <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M5" s="2">
         <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O5" s="2">
         <v>14</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3241,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -3259,25 +3262,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K6" s="2">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M6" s="2">
         <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="O6" s="2">
         <v>15</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3291,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -3309,25 +3312,25 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K7" s="2">
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M7" s="2">
         <v>16</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O7" s="2">
         <v>16</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3341,7 +3344,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -3359,25 +3362,25 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M8" s="2">
         <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3391,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>22</v>
@@ -3409,25 +3412,25 @@
         <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K9" s="2">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M9" s="2">
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3441,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -3459,25 +3462,25 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K10" s="2">
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M10" s="2">
         <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3491,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>24</v>
@@ -3509,25 +3512,25 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K11" s="2">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M11" s="2">
         <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3541,7 +3544,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>25</v>
@@ -3559,25 +3562,25 @@
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K12" s="2">
         <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M12" s="2">
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3591,7 +3594,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E13">
         <v>26</v>
@@ -3609,25 +3612,25 @@
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K13" s="2">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M13" s="2">
         <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3641,7 +3644,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -3659,25 +3662,25 @@
         <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K14" s="2">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M14" s="2">
         <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O14" s="2">
         <v>31</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3691,7 +3694,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E15">
         <v>32</v>
@@ -3709,25 +3712,25 @@
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K15" s="2">
         <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M15" s="2">
         <v>32</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O15" s="2">
         <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -3741,7 +3744,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>33</v>
@@ -3759,25 +3762,25 @@
         <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K16" s="2">
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M16" s="2">
         <v>33</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O16" s="2">
         <v>33</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3791,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E17">
         <v>34</v>
@@ -3809,25 +3812,25 @@
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K17" s="2">
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M17" s="2">
         <v>34</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O17" s="2">
         <v>34</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3841,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>35</v>
@@ -3859,25 +3862,25 @@
         <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K18" s="2">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M18" s="2">
         <v>35</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="O18" s="2">
         <v>35</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3891,7 +3894,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>36</v>
@@ -3909,25 +3912,25 @@
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K19" s="2">
         <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M19" s="2">
         <v>36</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O19" s="2">
         <v>36</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3941,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E20">
         <v>41</v>
@@ -3959,25 +3962,25 @@
         <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K20" s="2">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M20" s="2">
         <v>41</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="O20" s="2">
         <v>41</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3991,7 +3994,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E21">
         <v>42</v>
@@ -4009,25 +4012,25 @@
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K21" s="2">
         <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M21" s="2">
         <v>42</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O21" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4041,7 +4044,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E22">
         <v>43</v>
@@ -4059,25 +4062,25 @@
         <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K22" s="2">
         <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M22" s="2">
         <v>43</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O22" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4091,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>44</v>
@@ -4109,25 +4112,25 @@
         <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K23" s="2">
         <v>44</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M23" s="2">
         <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O23" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4141,7 +4144,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E24">
         <v>45</v>
@@ -4159,25 +4162,25 @@
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K24" s="2">
         <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M24" s="2">
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="O24" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4191,7 +4194,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E25">
         <v>46</v>
@@ -4209,25 +4212,25 @@
         <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K25" s="2">
         <v>46</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M25" s="2">
         <v>46</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O25" s="2">
         <v>46</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4235,49 +4238,49 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C26">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G26">
         <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I26">
         <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K26" s="2">
         <v>51</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M26" s="2">
         <v>51</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O26" s="2">
         <v>51</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4285,49 +4288,49 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C27">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E27">
         <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G27">
         <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I27">
         <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K27" s="2">
         <v>52</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M27" s="2">
         <v>52</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O27" s="2">
         <v>52</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4335,49 +4338,49 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C28">
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G28">
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I28">
         <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K28" s="2">
         <v>53</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M28" s="2">
         <v>53</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O28" s="2">
         <v>53</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4385,49 +4388,49 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C29">
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G29">
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I29">
         <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K29" s="2">
         <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M29" s="2">
         <v>54</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O29" s="2">
         <v>54</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4435,49 +4438,49 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C30">
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E30">
         <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G30">
         <v>55</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I30">
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K30" s="2">
         <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M30" s="2">
         <v>55</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="O30" s="2">
         <v>55</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4485,49 +4488,49 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E31">
         <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G31">
         <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I31">
         <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K31" s="2">
         <v>56</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M31" s="2">
         <v>56</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O31" s="2">
         <v>56</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4535,49 +4538,49 @@
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C32">
         <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E32">
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G32">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I32">
         <v>61</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K32" s="2">
         <v>61</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M32" s="2">
         <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O32" s="2">
         <v>61</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4585,49 +4588,49 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C33">
         <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E33">
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G33">
         <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I33">
         <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K33" s="2">
         <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M33" s="2">
         <v>62</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O33" s="2">
         <v>62</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4635,49 +4638,49 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C34">
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E34">
         <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G34">
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I34">
         <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K34" s="2">
         <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M34" s="2">
         <v>63</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O34" s="2">
         <v>63</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4685,49 +4688,49 @@
         <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C35">
         <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E35">
         <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G35">
         <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I35">
         <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K35" s="2">
         <v>64</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M35" s="2">
         <v>64</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O35" s="2">
         <v>64</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,49 +4738,49 @@
         <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E36">
         <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G36">
         <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I36">
         <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K36" s="2">
         <v>65</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M36" s="2">
         <v>65</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="O36" s="2">
         <v>65</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -4785,49 +4788,49 @@
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C37">
         <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G37">
         <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I37">
         <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K37" s="2">
         <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M37" s="2">
         <v>66</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O37" s="2">
         <v>66</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4835,49 +4838,49 @@
         <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C38">
         <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G38">
         <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I38">
         <v>71</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K38" s="2">
         <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M38" s="2">
         <v>71</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O38" s="2">
         <v>71</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4885,49 +4888,49 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C39">
         <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E39">
         <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G39">
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I39">
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K39" s="2">
         <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M39" s="2">
         <v>72</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O39" s="2">
         <v>72</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4935,49 +4938,49 @@
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C40">
         <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G40">
         <v>73</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I40">
         <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K40" s="2">
         <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M40" s="2">
         <v>73</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O40" s="2">
         <v>73</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -4985,49 +4988,49 @@
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C41">
         <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E41">
         <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G41">
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I41">
         <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K41" s="2">
         <v>74</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M41" s="2">
         <v>74</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O41" s="2">
         <v>74</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5035,49 +5038,49 @@
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C42">
         <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <v>75</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G42">
         <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I42">
         <v>75</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K42" s="2">
         <v>75</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M42" s="2">
         <v>75</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O42" s="2">
         <v>75</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -5085,49 +5088,49 @@
         <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43">
         <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E43">
         <v>76</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G43">
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I43">
         <v>76</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K43" s="2">
         <v>76</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M43" s="2">
         <v>76</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O43" s="2">
         <v>76</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -5135,49 +5138,49 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C44">
         <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E44">
         <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G44">
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I44">
         <v>81</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K44" s="2">
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M44" s="2">
         <v>81</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O44" s="2">
         <v>81</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -5185,49 +5188,49 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C45">
         <v>82</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E45">
         <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G45">
         <v>82</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I45">
         <v>82</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K45" s="2">
         <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2">
         <v>82</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O45" s="2">
         <v>82</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -5235,49 +5238,49 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C46">
         <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E46">
         <v>83</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G46">
         <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I46">
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K46" s="2">
         <v>83</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M46" s="2">
         <v>83</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O46" s="2">
         <v>83</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5285,49 +5288,49 @@
         <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C47">
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E47">
         <v>84</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G47">
         <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I47">
         <v>84</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K47" s="2">
         <v>84</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M47" s="2">
         <v>84</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O47" s="2">
         <v>84</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -5335,49 +5338,49 @@
         <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C48">
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E48">
         <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G48">
         <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I48">
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K48" s="2">
         <v>85</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M48" s="2">
         <v>85</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="O48" s="2">
         <v>85</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -5385,49 +5388,49 @@
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C49">
         <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G49">
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I49">
         <v>86</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K49" s="2">
         <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M49" s="2">
         <v>86</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="O49" s="2">
         <v>86</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -5435,49 +5438,49 @@
         <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C50">
         <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E50">
         <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G50">
         <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I50">
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K50" s="2">
         <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M50" s="2">
         <v>91</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O50" s="2">
         <v>91</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -5485,49 +5488,49 @@
         <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C51">
         <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E51">
         <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G51">
         <v>92</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I51">
         <v>92</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K51" s="2">
         <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M51" s="2">
         <v>92</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O51" s="2">
         <v>92</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -5535,49 +5538,49 @@
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C52">
         <v>93</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E52">
         <v>93</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G52">
         <v>93</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I52">
         <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K52" s="2">
         <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M52" s="2">
         <v>93</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="O52" s="2">
         <v>93</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -5585,49 +5588,49 @@
         <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E53">
         <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G53">
         <v>94</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I53">
         <v>94</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K53" s="2">
         <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M53" s="2">
         <v>94</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="O53" s="2">
         <v>94</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -5635,49 +5638,49 @@
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C54">
         <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E54">
         <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G54">
         <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I54">
         <v>95</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K54" s="2">
         <v>95</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M54" s="2">
         <v>95</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O54" s="2">
         <v>95</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5685,49 +5688,49 @@
         <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C55">
         <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E55">
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G55">
         <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I55">
         <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K55" s="2">
         <v>96</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M55" s="2">
         <v>96</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O55" s="2">
         <v>96</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -5736,31 +5739,31 @@
         <v>101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I56">
         <v>101</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K56" s="2">
         <v>101</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M56" s="2">
         <v>101</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O56" s="2">
         <v>101</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -5769,31 +5772,31 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I57">
         <v>102</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K57" s="2">
         <v>102</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M57" s="2">
         <v>102</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O57" s="2">
         <v>102</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -5802,31 +5805,31 @@
         <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I58">
         <v>103</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K58" s="2">
         <v>103</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M58" s="2">
         <v>103</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O58" s="2">
         <v>103</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -5835,31 +5838,31 @@
         <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I59">
         <v>104</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K59" s="2">
         <v>104</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M59" s="2">
         <v>104</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O59" s="2">
         <v>104</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -5868,31 +5871,31 @@
         <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I60">
         <v>105</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K60" s="2">
         <v>105</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M60" s="2">
         <v>105</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="O60" s="2">
         <v>105</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -5901,31 +5904,31 @@
         <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I61">
         <v>106</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K61" s="2">
         <v>106</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M61" s="2">
         <v>106</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O61" s="2">
         <v>106</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -5934,31 +5937,31 @@
         <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I62">
         <v>111</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K62" s="2">
         <v>111</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M62" s="2">
         <v>111</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O62" s="2">
         <v>111</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -5967,31 +5970,31 @@
         <v>112</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I63">
         <v>112</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K63" s="2">
         <v>112</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M63" s="2">
         <v>112</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O63" s="2">
         <v>112</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -6000,31 +6003,31 @@
         <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I64">
         <v>113</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K64" s="2">
         <v>113</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M64" s="2">
         <v>113</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O64" s="2">
         <v>113</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -6033,31 +6036,31 @@
         <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I65">
         <v>114</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K65" s="2">
         <v>114</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M65" s="2">
         <v>114</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O65" s="2">
         <v>114</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -6066,31 +6069,31 @@
         <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I66">
         <v>115</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K66" s="2">
         <v>115</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M66" s="2">
         <v>115</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="O66" s="2">
         <v>115</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -6099,31 +6102,31 @@
         <v>116</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I67">
         <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K67" s="2">
         <v>116</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M67" s="2">
         <v>116</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O67" s="2">
         <v>116</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -6132,31 +6135,31 @@
         <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I68">
         <v>121</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K68" s="2">
         <v>121</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M68" s="2">
         <v>121</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O68" s="2">
         <v>121</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -6165,31 +6168,31 @@
         <v>122</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I69">
         <v>122</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K69" s="2">
         <v>122</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M69" s="2">
         <v>122</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O69" s="2">
         <v>122</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -6198,31 +6201,31 @@
         <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I70">
         <v>123</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K70" s="2">
         <v>123</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M70" s="2">
         <v>123</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O70" s="2">
         <v>123</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -6231,31 +6234,31 @@
         <v>124</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I71">
         <v>124</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K71" s="2">
         <v>124</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M71" s="2">
         <v>124</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O71" s="2">
         <v>124</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -6264,31 +6267,31 @@
         <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I72">
         <v>125</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K72" s="2">
         <v>125</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M72" s="2">
         <v>125</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O72" s="2">
         <v>125</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -6297,31 +6300,31 @@
         <v>126</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I73">
         <v>126</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K73" s="2">
         <v>126</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M73" s="2">
         <v>126</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O73" s="2">
         <v>126</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -6330,31 +6333,31 @@
         <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I74">
         <v>131</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K74" s="2">
         <v>131</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M74" s="2">
         <v>131</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O74" s="2">
         <v>131</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -6363,31 +6366,31 @@
         <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I75">
         <v>132</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K75" s="2">
         <v>132</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M75" s="2">
         <v>132</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O75" s="2">
         <v>132</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -6396,31 +6399,31 @@
         <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I76">
         <v>133</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K76" s="2">
         <v>133</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M76" s="2">
         <v>133</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O76" s="2">
         <v>133</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -6429,31 +6432,31 @@
         <v>134</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I77">
         <v>134</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K77" s="2">
         <v>134</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M77" s="2">
         <v>134</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O77" s="2">
         <v>134</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -6462,31 +6465,31 @@
         <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I78">
         <v>135</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K78" s="2">
         <v>135</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M78" s="2">
         <v>135</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O78" s="2">
         <v>135</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -6495,31 +6498,31 @@
         <v>136</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I79">
         <v>136</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K79" s="2">
         <v>136</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M79" s="2">
         <v>136</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O79" s="2">
         <v>136</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -6528,31 +6531,31 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I80">
         <v>141</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K80" s="2">
         <v>141</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M80" s="2">
         <v>141</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O80" s="2">
         <v>141</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -6561,31 +6564,31 @@
         <v>142</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I81">
         <v>142</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K81" s="2">
         <v>142</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M81" s="2">
         <v>142</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O81" s="2">
         <v>142</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -6594,31 +6597,31 @@
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I82">
         <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K82" s="2">
         <v>143</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M82" s="2">
         <v>143</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O82" s="2">
         <v>143</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -6627,31 +6630,31 @@
         <v>144</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I83">
         <v>144</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K83" s="2">
         <v>144</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M83" s="2">
         <v>144</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O83" s="2">
         <v>144</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -6660,31 +6663,31 @@
         <v>145</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I84">
         <v>145</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K84" s="2">
         <v>145</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M84" s="2">
         <v>145</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O84" s="2">
         <v>145</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -6693,31 +6696,31 @@
         <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I85">
         <v>146</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K85" s="2">
         <v>146</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M85" s="2">
         <v>146</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O85" s="2">
         <v>146</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -6726,31 +6729,31 @@
         <v>151</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I86">
         <v>151</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K86" s="2">
         <v>151</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M86" s="2">
         <v>151</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O86" s="2">
         <v>151</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -6759,31 +6762,31 @@
         <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I87">
         <v>152</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K87" s="2">
         <v>152</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M87" s="2">
         <v>152</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O87" s="2">
         <v>152</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -6792,31 +6795,31 @@
         <v>153</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I88">
         <v>153</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K88" s="2">
         <v>153</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M88" s="2">
         <v>153</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O88" s="2">
         <v>153</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -6825,31 +6828,31 @@
         <v>154</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I89">
         <v>154</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K89" s="2">
         <v>154</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M89" s="2">
         <v>154</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O89" s="2">
         <v>154</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -6858,31 +6861,31 @@
         <v>155</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I90">
         <v>155</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K90" s="2">
         <v>155</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M90" s="2">
         <v>155</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O90" s="2">
         <v>155</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -6891,31 +6894,31 @@
         <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I91">
         <v>156</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K91" s="2">
         <v>156</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M91" s="2">
         <v>156</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O91" s="2">
         <v>156</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -6931,8 +6934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F886372-8571-4EBE-B60F-0A33A6F2EC9F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A2:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,42 +6945,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6985,63 +6988,63 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7076,7 +7079,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -7084,7 +7087,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -7092,7 +7095,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -7100,7 +7103,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -7108,7 +7111,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7116,7 +7119,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -7124,7 +7127,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -7132,7 +7135,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7140,7 +7143,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9F0645-3218-459F-A59A-B6D74BB8BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2D028-A3C2-4E69-B5AA-8013EACF578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4770" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10215" yWindow="2460" windowWidth="18195" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="702">
   <si>
     <t>1FO1</t>
   </si>
@@ -2068,9 +2068,6 @@
     <t>2BAR1-5</t>
   </si>
   <si>
-    <t>21,41,42,43</t>
-  </si>
-  <si>
     <t>FPOL_ELEM</t>
   </si>
   <si>
@@ -2102,6 +2099,51 @@
   </si>
   <si>
     <t>plum</t>
+  </si>
+  <si>
+    <t>74,93,91,102</t>
+  </si>
+  <si>
+    <t>9BAR1-3</t>
+  </si>
+  <si>
+    <t>12BAR1-5</t>
+  </si>
+  <si>
+    <t>121,125,142,143,144</t>
+  </si>
+  <si>
+    <t>91,102,93,114,125</t>
+  </si>
+  <si>
+    <t>21,42,43,44,25</t>
+  </si>
+  <si>
+    <t>4BAR2-4</t>
+  </si>
+  <si>
+    <t>42,43,44,71</t>
+  </si>
+  <si>
+    <t>42,43,44</t>
+  </si>
+  <si>
+    <t>7BAR1-6</t>
+  </si>
+  <si>
+    <t>11BAR1-3</t>
+  </si>
+  <si>
+    <t>71,72,83,94,95,76</t>
+  </si>
+  <si>
+    <t>71,72,76</t>
+  </si>
+  <si>
+    <t>94,111,113,122</t>
+  </si>
+  <si>
+    <t>111,113,122,134,145</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,10 +2815,10 @@
         <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I3">
         <v>25.26</v>
@@ -2802,13 +2844,13 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G4" t="s">
+        <v>681</v>
+      </c>
+      <c r="J4" t="s">
         <v>680</v>
-      </c>
-      <c r="G4" t="s">
-        <v>682</v>
-      </c>
-      <c r="J4" t="s">
-        <v>681</v>
       </c>
       <c r="K4">
         <v>63</v>
@@ -2833,6 +2875,24 @@
       <c r="D5" t="s">
         <v>107</v>
       </c>
+      <c r="G5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I5">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="J5">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>93</v>
+      </c>
+      <c r="L5">
+        <v>91</v>
+      </c>
+      <c r="M5">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2847,6 +2907,27 @@
       <c r="D6" t="s">
         <v>108</v>
       </c>
+      <c r="E6" t="s">
+        <v>688</v>
+      </c>
+      <c r="G6" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6">
+        <v>96</v>
+      </c>
+      <c r="J6">
+        <v>91.93</v>
+      </c>
+      <c r="K6">
+        <v>102</v>
+      </c>
+      <c r="L6">
+        <v>114</v>
+      </c>
+      <c r="M6">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2861,6 +2942,27 @@
       <c r="D7" t="s">
         <v>108</v>
       </c>
+      <c r="E7" t="s">
+        <v>689</v>
+      </c>
+      <c r="G7" t="s">
+        <v>690</v>
+      </c>
+      <c r="I7">
+        <v>96</v>
+      </c>
+      <c r="J7">
+        <v>121.125</v>
+      </c>
+      <c r="K7">
+        <v>144</v>
+      </c>
+      <c r="L7">
+        <v>143</v>
+      </c>
+      <c r="M7">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2880,7 +2982,7 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
@@ -2909,6 +3011,24 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>693</v>
+      </c>
+      <c r="G9" t="s">
+        <v>694</v>
+      </c>
+      <c r="I9">
+        <v>45.46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>695</v>
+      </c>
+      <c r="M9">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2920,6 +3040,27 @@
       <c r="C10">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>696</v>
+      </c>
+      <c r="G10" t="s">
+        <v>698</v>
+      </c>
+      <c r="J10" t="s">
+        <v>699</v>
+      </c>
+      <c r="K10">
+        <v>83</v>
+      </c>
+      <c r="L10">
+        <v>95</v>
+      </c>
+      <c r="M10">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2931,6 +3072,27 @@
       <c r="C11">
         <v>4</v>
       </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>700</v>
+      </c>
+      <c r="I11">
+        <v>95.96</v>
+      </c>
+      <c r="J11">
+        <v>94</v>
+      </c>
+      <c r="K11">
+        <v>113</v>
+      </c>
+      <c r="L11">
+        <v>111</v>
+      </c>
+      <c r="M11">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2941,6 +3103,30 @@
       </c>
       <c r="C12">
         <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>697</v>
+      </c>
+      <c r="G12" t="s">
+        <v>701</v>
+      </c>
+      <c r="I12">
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <v>111.113</v>
+      </c>
+      <c r="K12">
+        <v>122</v>
+      </c>
+      <c r="L12">
+        <v>134</v>
+      </c>
+      <c r="M12">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3006,7 +3192,7 @@
         <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I1" t="s">
         <v>212</v>
@@ -6934,7 +7120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F886372-8571-4EBE-B60F-0A33A6F2EC9F}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6945,7 +7131,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1" t="s">
         <v>90</v>
@@ -6980,7 +7166,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +7174,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7198,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7214,7 @@
         <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2D028-A3C2-4E69-B5AA-8013EACF578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04DF85-A016-4DC0-B517-EDB686310FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="2460" windowWidth="18195" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="705">
   <si>
     <t>1FO1</t>
   </si>
@@ -2144,6 +2144,15 @@
   </si>
   <si>
     <t>111,113,122,134,145</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>note_board</t>
+  </si>
+  <si>
+    <t>bare_board</t>
   </si>
 </sst>
 </file>
@@ -2418,8 +2427,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}" name="Таблица3" displayName="Таблица3" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}" name="Таблица3" displayName="Таблица3" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{209D79CE-9819-4801-AFB2-07D17A236934}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{07E6B688-4FE1-47C4-9618-786764A7C3A6}" name="ton"/>
     <tableColumn id="2" xr3:uid="{FD6C67DB-A177-4EFF-8E77-834E4A6481F8}" name="color"/>
@@ -2704,26 +2713,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="14" width="10.5546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2810,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2973,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3144,7 +3153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3158,18 +3167,18 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
@@ -3569,7 +3578,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>26</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>41</v>
       </c>
@@ -4169,7 +4178,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>42</v>
       </c>
@@ -4219,7 +4228,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>43</v>
       </c>
@@ -4269,7 +4278,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>44</v>
       </c>
@@ -4319,7 +4328,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>46</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>51</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>52</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>53</v>
       </c>
@@ -4569,7 +4578,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>54</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>55</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>56</v>
       </c>
@@ -4719,7 +4728,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>61</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>62</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>63</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>64</v>
       </c>
@@ -4919,7 +4928,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>65</v>
       </c>
@@ -4969,7 +4978,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>66</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>71</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>72</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>73</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>74</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>75</v>
       </c>
@@ -5269,7 +5278,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>76</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>81</v>
       </c>
@@ -5369,7 +5378,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>82</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>83</v>
       </c>
@@ -5469,7 +5478,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>84</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>85</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>86</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>91</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>92</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>93</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>94</v>
       </c>
@@ -5819,7 +5828,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>95</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>96</v>
       </c>
@@ -5919,7 +5928,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56">
         <v>101</v>
@@ -5952,7 +5961,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57">
         <v>102</v>
@@ -5985,7 +5994,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58">
         <v>103</v>
@@ -6018,7 +6027,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59">
         <v>104</v>
@@ -6051,7 +6060,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60">
         <v>105</v>
@@ -6084,7 +6093,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61">
         <v>106</v>
@@ -6117,7 +6126,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62">
         <v>111</v>
@@ -6150,7 +6159,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63">
         <v>112</v>
@@ -6183,7 +6192,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64">
         <v>113</v>
@@ -6216,7 +6225,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65">
         <v>114</v>
@@ -6249,7 +6258,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66">
         <v>115</v>
@@ -6282,7 +6291,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67">
         <v>116</v>
@@ -6315,7 +6324,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68">
         <v>121</v>
@@ -6348,7 +6357,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69">
         <v>122</v>
@@ -6381,7 +6390,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70">
         <v>123</v>
@@ -6414,7 +6423,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71">
         <v>124</v>
@@ -6447,7 +6456,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72">
         <v>125</v>
@@ -6480,7 +6489,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73">
         <v>126</v>
@@ -6513,7 +6522,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74">
         <v>131</v>
@@ -6546,7 +6555,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75">
         <v>132</v>
@@ -6579,7 +6588,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76">
         <v>133</v>
@@ -6612,7 +6621,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77">
         <v>134</v>
@@ -6645,7 +6654,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78">
         <v>135</v>
@@ -6678,7 +6687,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79">
         <v>136</v>
@@ -6711,7 +6720,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80">
         <v>141</v>
@@ -6744,7 +6753,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81">
         <v>142</v>
@@ -6777,7 +6786,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82">
         <v>143</v>
@@ -6810,7 +6819,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83">
         <v>144</v>
@@ -6843,7 +6852,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84">
         <v>145</v>
@@ -6876,7 +6885,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85">
         <v>146</v>
@@ -6909,7 +6918,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86">
         <v>151</v>
@@ -6942,7 +6951,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87">
         <v>152</v>
@@ -6975,7 +6984,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88">
         <v>153</v>
@@ -7008,7 +7017,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89">
         <v>154</v>
@@ -7041,7 +7050,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90">
         <v>155</v>
@@ -7074,7 +7083,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91">
         <v>156</v>
@@ -7118,18 +7127,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F886372-8571-4EBE-B60F-0A33A6F2EC9F}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>682</v>
       </c>
@@ -7137,7 +7148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -7161,7 +7172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7169,7 +7180,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -7177,7 +7188,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -7185,7 +7196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -7209,7 +7220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7217,7 +7228,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -7225,12 +7236,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -7249,13 +7275,13 @@
       <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7263,7 +7289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -7271,7 +7297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7279,7 +7305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -7287,7 +7313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -7295,7 +7321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -7303,7 +7329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -7311,7 +7337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -7319,7 +7345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -7327,7 +7353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04DF85-A016-4DC0-B517-EDB686310FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E399FA-CFA2-4342-A30B-EE64075580CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="705">
   <si>
     <t>1FO1</t>
   </si>
@@ -2146,13 +2146,13 @@
     <t>111,113,122,134,145</t>
   </si>
   <si>
-    <t>bare</t>
-  </si>
-  <si>
-    <t>note_board</t>
-  </si>
-  <si>
-    <t>bare_board</t>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>barre</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2182,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2192,6 +2192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2224,11 +2230,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2357,6 +2370,30 @@
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2371,22 +2408,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}" name="Таблица1" displayName="Таблица1" ref="A1:M12" totalsRowShown="0">
-  <autoFilter ref="A1:M12" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}" name="Таблица1" displayName="Таблица1" ref="A1:N12" totalsRowShown="0">
+  <autoFilter ref="A1:N12" xr:uid="{9AB4C89D-AB5A-4A1F-B326-F5F198140701}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{2072CA9B-0F41-4119-9969-2784396AB402}" name="CHORD"/>
     <tableColumn id="23" xr3:uid="{5829BFBD-B73C-408D-BCF8-107898CE6A27}" name="CAPTION"/>
+    <tableColumn id="12" xr3:uid="{C33C2A08-3AE2-446C-B199-9C12FE1A649A}" name="TYPE"/>
     <tableColumn id="2" xr3:uid="{CDFF5103-40D7-4B0E-9D19-1E152CAFA783}" name="VARIANT"/>
     <tableColumn id="25" xr3:uid="{D30F0CD1-2D92-4A87-AC58-A527D28A6DEE}" name="RAM"/>
     <tableColumn id="4" xr3:uid="{A8FC08C7-57C8-4088-91C9-28568F32EAE9}" name="BAR"/>
-    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="FNL"/>
-    <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="FN"/>
-    <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="FPOL"/>
-    <tableColumn id="3" xr3:uid="{A99F4C04-ED9A-466F-AC62-329F1326E313}" name="FPXL"/>
-    <tableColumn id="5" xr3:uid="{D4931CCA-70DA-4206-A0DD-32B74EEF5317}" name="FP1"/>
-    <tableColumn id="9" xr3:uid="{73C19249-8303-48C5-B8D0-F9BEF2B39194}" name="FP2"/>
-    <tableColumn id="10" xr3:uid="{FCF00674-E17E-4D1D-AFE8-89FA0B5A4AA5}" name="FP3"/>
-    <tableColumn id="11" xr3:uid="{04F3B629-15EF-45B2-B74C-102FE00DA6CA}" name="FP4"/>
+    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="FNL" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="FN" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="FPOL" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A99F4C04-ED9A-466F-AC62-329F1326E313}" name="FPXL" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D4931CCA-70DA-4206-A0DD-32B74EEF5317}" name="FP1" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{73C19249-8303-48C5-B8D0-F9BEF2B39194}" name="FP2" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{FCF00674-E17E-4D1D-AFE8-89FA0B5A4AA5}" name="FP3" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{04F3B629-15EF-45B2-B74C-102FE00DA6CA}" name="FP4" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2711,28 +2749,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" customWidth="1"/>
+    <col min="1" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="15" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2740,401 +2779,461 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>211</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>216</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
         <v>21.25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="8">
         <v>21.25</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="8">
         <v>26</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="8">
         <v>24</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="8">
         <v>23</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="8">
         <v>22</v>
       </c>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>678</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9">
         <v>25.26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>679</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="9">
         <v>63</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="9">
         <v>75</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>107</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
         <v>75.760000000000005</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="9">
         <v>74</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="9">
         <v>93</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="9">
         <v>91</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>688</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9">
         <v>96</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="9">
         <v>91.93</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="9">
         <v>102</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="9">
         <v>114</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="9">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>689</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
         <v>96</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="9">
         <v>121.125</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="9">
         <v>144</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="9">
         <v>143</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="9">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
         <v>26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="8">
         <v>21.25</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="8">
         <v>44</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="8">
         <v>43</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>674</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>693</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9">
         <v>45.46</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>674</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>696</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="9">
         <v>83</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="9">
         <v>95</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="9">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>674</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <v>95.96</v>
       </c>
-      <c r="J11">
+      <c r="K11" s="9">
         <v>94</v>
       </c>
-      <c r="K11">
+      <c r="L11" s="9">
         <v>113</v>
       </c>
-      <c r="L11">
+      <c r="M11" s="9">
         <v>111</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="9">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>674</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>108</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>697</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <v>96</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="9">
         <v>111.113</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="9">
         <v>122</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="9">
         <v>134</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="9">
         <v>145</v>
       </c>
     </row>
@@ -3149,6 +3248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4F0F4E-CBF4-40A7-8501-F3E0C1D835B2}">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3161,6 +3261,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90A39A7-244A-4C6B-95C4-7CCD2456A709}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7127,10 +7228,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F886372-8571-4EBE-B60F-0A33A6F2EC9F}">
-  <dimension ref="A1:B16"/>
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7246,17 +7348,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
         <v>704</v>
+      </c>
+      <c r="B14" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -7269,6 +7364,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414FFAA7-2658-4FE7-809A-BC95804D6571}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chibisovi\Desktop\Chibisov\python\GCmaker\templates2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E399FA-CFA2-4342-A30B-EE64075580CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5523C7-D714-4F45-8343-D9781404E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHORDS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="706">
   <si>
     <t>1FO1</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>barre</t>
+  </si>
+  <si>
+    <t>orange_brown</t>
   </si>
 </sst>
 </file>
@@ -2756,22 +2759,22 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="15" width="10.5546875" customWidth="1"/>
+    <col min="1" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="15" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2858,7 @@
       </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -3253,7 +3256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3268,18 +3271,18 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -4079,7 +4082,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>46</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>51</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>54</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>55</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>56</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>61</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>62</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>63</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>64</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>65</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>66</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>73</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>74</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>75</v>
       </c>
@@ -5379,7 +5382,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>76</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>81</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>82</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>83</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>84</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>85</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>86</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>91</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>92</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>93</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>94</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>96</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56">
         <v>101</v>
@@ -6062,7 +6065,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57">
         <v>102</v>
@@ -6095,7 +6098,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58">
         <v>103</v>
@@ -6128,7 +6131,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59">
         <v>104</v>
@@ -6161,7 +6164,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60">
         <v>105</v>
@@ -6194,7 +6197,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61">
         <v>106</v>
@@ -6227,7 +6230,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62">
         <v>111</v>
@@ -6260,7 +6263,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63">
         <v>112</v>
@@ -6293,7 +6296,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64">
         <v>113</v>
@@ -6326,7 +6329,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65">
         <v>114</v>
@@ -6359,7 +6362,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66">
         <v>115</v>
@@ -6392,7 +6395,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67">
         <v>116</v>
@@ -6425,7 +6428,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68">
         <v>121</v>
@@ -6458,7 +6461,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69">
         <v>122</v>
@@ -6491,7 +6494,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70">
         <v>123</v>
@@ -6524,7 +6527,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71">
         <v>124</v>
@@ -6557,7 +6560,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72">
         <v>125</v>
@@ -6590,7 +6593,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73">
         <v>126</v>
@@ -6623,7 +6626,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74">
         <v>131</v>
@@ -6656,7 +6659,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75">
         <v>132</v>
@@ -6689,7 +6692,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76">
         <v>133</v>
@@ -6722,7 +6725,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77">
         <v>134</v>
@@ -6755,7 +6758,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78">
         <v>135</v>
@@ -6788,7 +6791,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79">
         <v>136</v>
@@ -6821,7 +6824,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80">
         <v>141</v>
@@ -6854,7 +6857,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81">
         <v>142</v>
@@ -6887,7 +6890,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82">
         <v>143</v>
@@ -6920,7 +6923,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83">
         <v>144</v>
@@ -6953,7 +6956,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84">
         <v>145</v>
@@ -6986,7 +6989,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85">
         <v>146</v>
@@ -7019,7 +7022,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86">
         <v>151</v>
@@ -7052,7 +7055,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87">
         <v>152</v>
@@ -7085,7 +7088,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88">
         <v>153</v>
@@ -7118,7 +7121,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89">
         <v>154</v>
@@ -7151,7 +7154,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90">
         <v>155</v>
@@ -7184,7 +7187,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91">
         <v>156</v>
@@ -7235,14 +7238,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>682</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -7346,12 +7349,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>704</v>
       </c>
       <c r="B14" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -7368,16 +7371,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -7449,7 +7452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5523C7-D714-4F45-8343-D9781404E3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9317F-B490-46A1-BA13-D27F06F3446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>5,6,7,,8,9,10,11</t>
-  </si>
-  <si>
     <t>6,7,8,9,10,11,12</t>
   </si>
   <si>
@@ -2155,7 +2152,10 @@
     <t>barre</t>
   </si>
   <si>
-    <t>orange_brown</t>
+    <t>5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>orange_metal</t>
   </si>
 </sst>
 </file>
@@ -2776,46 +2776,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
-      </c>
-      <c r="N1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2826,20 +2826,20 @@
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8">
         <v>21.25</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I2" s="8">
         <v>21.25</v>
@@ -2866,27 +2866,27 @@
         <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9">
         <v>25.26</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -2902,25 +2902,25 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L4" s="9">
         <v>63</v>
@@ -2940,17 +2940,17 @@
         <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9">
@@ -2977,20 +2977,20 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9">
@@ -3017,20 +3017,20 @@
         <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9">
@@ -3051,26 +3051,26 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8">
@@ -3091,33 +3091,33 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9">
         <v>45.46</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -3127,31 +3127,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L10" s="9">
         <v>83</v>
@@ -3165,23 +3165,23 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9">
@@ -3202,26 +3202,26 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9">
@@ -3284,52 +3284,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" t="s">
-        <v>676</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>310</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>312</v>
-      </c>
-      <c r="O1" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -3361,25 +3361,25 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K2" s="2">
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M2" s="2">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O2" s="2">
         <v>11</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -3411,25 +3411,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K3" s="2">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M3" s="2">
         <v>12</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O3" s="2">
         <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -3461,25 +3461,25 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" s="2">
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M4" s="2">
         <v>13</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O4" s="2">
         <v>13</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -3511,25 +3511,25 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K5" s="2">
         <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M5" s="2">
         <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O5" s="2">
         <v>14</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -3561,25 +3561,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K6" s="2">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M6" s="2">
         <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O6" s="2">
         <v>15</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -3611,25 +3611,25 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K7" s="2">
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M7" s="2">
         <v>16</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O7" s="2">
         <v>16</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3637,49 +3637,49 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8">
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K8" s="2">
         <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="2">
         <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3687,49 +3687,49 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K9" s="2">
         <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M9" s="2">
         <v>22</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3737,49 +3737,49 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K10" s="2">
         <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M10" s="2">
         <v>23</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3787,49 +3787,49 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K11" s="2">
         <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M11" s="2">
         <v>24</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -3837,49 +3837,49 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12">
         <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K12" s="2">
         <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M12" s="2">
         <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -3887,49 +3887,49 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K13" s="2">
         <v>26</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M13" s="2">
         <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3937,49 +3937,49 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14">
         <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K14" s="2">
         <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M14" s="2">
         <v>31</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O14" s="2">
         <v>31</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3987,49 +3987,49 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15">
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K15" s="2">
         <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M15" s="2">
         <v>32</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O15" s="2">
         <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4037,49 +4037,49 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16">
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K16" s="2">
         <v>33</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M16" s="2">
         <v>33</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O16" s="2">
         <v>33</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4087,49 +4087,49 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17">
         <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17">
         <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K17" s="2">
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M17" s="2">
         <v>34</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O17" s="2">
         <v>34</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4137,49 +4137,49 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18">
         <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K18" s="2">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M18" s="2">
         <v>35</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O18" s="2">
         <v>35</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4187,49 +4187,49 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19">
         <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19">
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K19" s="2">
         <v>36</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M19" s="2">
         <v>36</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O19" s="2">
         <v>36</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4237,49 +4237,49 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K20" s="2">
         <v>41</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M20" s="2">
         <v>41</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O20" s="2">
         <v>41</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4287,49 +4287,49 @@
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21">
         <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>42</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K21" s="2">
         <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M21" s="2">
         <v>42</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4337,49 +4337,49 @@
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22">
         <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22">
         <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K22" s="2">
         <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M22" s="2">
         <v>43</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O22" s="2">
         <v>43</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4387,49 +4387,49 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23">
         <v>44</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23">
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K23" s="2">
         <v>44</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M23" s="2">
         <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O23" s="2">
         <v>44</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4437,49 +4437,49 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24">
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K24" s="2">
         <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M24" s="2">
         <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O24" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4487,49 +4487,49 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25">
         <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25">
         <v>46</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25">
         <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K25" s="2">
         <v>46</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M25" s="2">
         <v>46</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O25" s="2">
         <v>46</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4537,49 +4537,49 @@
         <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26">
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26">
         <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I26">
         <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K26" s="2">
         <v>51</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M26" s="2">
         <v>51</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O26" s="2">
         <v>51</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4587,49 +4587,49 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27">
         <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I27">
         <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K27" s="2">
         <v>52</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M27" s="2">
         <v>52</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O27" s="2">
         <v>52</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4637,49 +4637,49 @@
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28">
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28">
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I28">
         <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K28" s="2">
         <v>53</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M28" s="2">
         <v>53</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O28" s="2">
         <v>53</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4687,49 +4687,49 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29">
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E29">
         <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G29">
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I29">
         <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K29" s="2">
         <v>54</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M29" s="2">
         <v>54</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O29" s="2">
         <v>54</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4737,49 +4737,49 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30">
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30">
         <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G30">
         <v>55</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I30">
         <v>55</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K30" s="2">
         <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M30" s="2">
         <v>55</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O30" s="2">
         <v>55</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4787,49 +4787,49 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31">
         <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31">
         <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G31">
         <v>56</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I31">
         <v>56</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K31" s="2">
         <v>56</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M31" s="2">
         <v>56</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O31" s="2">
         <v>56</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4837,49 +4837,49 @@
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32">
         <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32">
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G32">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I32">
         <v>61</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K32" s="2">
         <v>61</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M32" s="2">
         <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O32" s="2">
         <v>61</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4887,49 +4887,49 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33">
         <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33">
         <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I33">
         <v>62</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K33" s="2">
         <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M33" s="2">
         <v>62</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O33" s="2">
         <v>62</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4937,49 +4937,49 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34">
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G34">
         <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I34">
         <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K34" s="2">
         <v>63</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M34" s="2">
         <v>63</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O34" s="2">
         <v>63</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4987,49 +4987,49 @@
         <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35">
         <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35">
         <v>64</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35">
         <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I35">
         <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K35" s="2">
         <v>64</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M35" s="2">
         <v>64</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O35" s="2">
         <v>64</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5037,49 +5037,49 @@
         <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36">
         <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36">
         <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36">
         <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I36">
         <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K36" s="2">
         <v>65</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M36" s="2">
         <v>65</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O36" s="2">
         <v>65</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -5087,49 +5087,49 @@
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37">
         <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37">
         <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I37">
         <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K37" s="2">
         <v>66</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M37" s="2">
         <v>66</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O37" s="2">
         <v>66</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -5137,49 +5137,49 @@
         <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38">
         <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38">
         <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G38">
         <v>71</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I38">
         <v>71</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K38" s="2">
         <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M38" s="2">
         <v>71</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O38" s="2">
         <v>71</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -5187,49 +5187,49 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39">
         <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39">
         <v>72</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39">
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I39">
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K39" s="2">
         <v>72</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2">
         <v>72</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O39" s="2">
         <v>72</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -5237,49 +5237,49 @@
         <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40">
         <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40">
         <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G40">
         <v>73</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I40">
         <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K40" s="2">
         <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M40" s="2">
         <v>73</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O40" s="2">
         <v>73</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -5287,49 +5287,49 @@
         <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41">
         <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41">
         <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G41">
         <v>74</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I41">
         <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K41" s="2">
         <v>74</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M41" s="2">
         <v>74</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O41" s="2">
         <v>74</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5337,49 +5337,49 @@
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42">
         <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42">
         <v>75</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42">
         <v>75</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I42">
         <v>75</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K42" s="2">
         <v>75</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M42" s="2">
         <v>75</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O42" s="2">
         <v>75</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -5387,49 +5387,49 @@
         <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43">
         <v>76</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43">
         <v>76</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43">
         <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I43">
         <v>76</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K43" s="2">
         <v>76</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M43" s="2">
         <v>76</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O43" s="2">
         <v>76</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -5437,49 +5437,49 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44">
         <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44">
         <v>81</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G44">
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I44">
         <v>81</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K44" s="2">
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M44" s="2">
         <v>81</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O44" s="2">
         <v>81</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -5487,49 +5487,49 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45">
         <v>82</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45">
         <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G45">
         <v>82</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I45">
         <v>82</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K45" s="2">
         <v>82</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2">
         <v>82</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O45" s="2">
         <v>82</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -5537,49 +5537,49 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46">
         <v>83</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46">
         <v>83</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G46">
         <v>83</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I46">
         <v>83</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K46" s="2">
         <v>83</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M46" s="2">
         <v>83</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O46" s="2">
         <v>83</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5587,49 +5587,49 @@
         <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47">
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47">
         <v>84</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47">
         <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I47">
         <v>84</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K47" s="2">
         <v>84</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M47" s="2">
         <v>84</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O47" s="2">
         <v>84</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -5637,49 +5637,49 @@
         <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48">
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48">
         <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G48">
         <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I48">
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K48" s="2">
         <v>85</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M48" s="2">
         <v>85</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O48" s="2">
         <v>85</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -5687,49 +5687,49 @@
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49">
         <v>86</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49">
         <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G49">
         <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I49">
         <v>86</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K49" s="2">
         <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M49" s="2">
         <v>86</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O49" s="2">
         <v>86</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -5737,49 +5737,49 @@
         <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50">
         <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50">
         <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G50">
         <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I50">
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K50" s="2">
         <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M50" s="2">
         <v>91</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O50" s="2">
         <v>91</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -5787,49 +5787,49 @@
         <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51">
         <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51">
         <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G51">
         <v>92</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I51">
         <v>92</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K51" s="2">
         <v>92</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M51" s="2">
         <v>92</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O51" s="2">
         <v>92</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -5837,49 +5837,49 @@
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52">
         <v>93</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E52">
         <v>93</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G52">
         <v>93</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I52">
         <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K52" s="2">
         <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M52" s="2">
         <v>93</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O52" s="2">
         <v>93</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -5887,49 +5887,49 @@
         <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53">
         <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>94</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G53">
         <v>94</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I53">
         <v>94</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K53" s="2">
         <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M53" s="2">
         <v>94</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O53" s="2">
         <v>94</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -5937,49 +5937,49 @@
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54">
         <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E54">
         <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G54">
         <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I54">
         <v>95</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K54" s="2">
         <v>95</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M54" s="2">
         <v>95</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O54" s="2">
         <v>95</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -5987,49 +5987,49 @@
         <v>96</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55">
         <v>96</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55">
         <v>96</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G55">
         <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I55">
         <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K55" s="2">
         <v>96</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M55" s="2">
         <v>96</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O55" s="2">
         <v>96</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -6038,31 +6038,31 @@
         <v>101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I56">
         <v>101</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K56" s="2">
         <v>101</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M56" s="2">
         <v>101</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O56" s="2">
         <v>101</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -6071,31 +6071,31 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57">
         <v>102</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K57" s="2">
         <v>102</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2">
         <v>102</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O57" s="2">
         <v>102</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -6104,31 +6104,31 @@
         <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58">
         <v>103</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K58" s="2">
         <v>103</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M58" s="2">
         <v>103</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O58" s="2">
         <v>103</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -6137,31 +6137,31 @@
         <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59">
         <v>104</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K59" s="2">
         <v>104</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M59" s="2">
         <v>104</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O59" s="2">
         <v>104</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -6170,31 +6170,31 @@
         <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I60">
         <v>105</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K60" s="2">
         <v>105</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M60" s="2">
         <v>105</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O60" s="2">
         <v>105</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -6203,31 +6203,31 @@
         <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I61">
         <v>106</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K61" s="2">
         <v>106</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M61" s="2">
         <v>106</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O61" s="2">
         <v>106</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -6236,31 +6236,31 @@
         <v>111</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62">
         <v>111</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K62" s="2">
         <v>111</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M62" s="2">
         <v>111</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O62" s="2">
         <v>111</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -6269,31 +6269,31 @@
         <v>112</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I63">
         <v>112</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K63" s="2">
         <v>112</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M63" s="2">
         <v>112</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O63" s="2">
         <v>112</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -6302,31 +6302,31 @@
         <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I64">
         <v>113</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K64" s="2">
         <v>113</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M64" s="2">
         <v>113</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O64" s="2">
         <v>113</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -6335,31 +6335,31 @@
         <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I65">
         <v>114</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K65" s="2">
         <v>114</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M65" s="2">
         <v>114</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O65" s="2">
         <v>114</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -6368,31 +6368,31 @@
         <v>115</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I66">
         <v>115</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K66" s="2">
         <v>115</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M66" s="2">
         <v>115</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O66" s="2">
         <v>115</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -6401,31 +6401,31 @@
         <v>116</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I67">
         <v>116</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K67" s="2">
         <v>116</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M67" s="2">
         <v>116</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O67" s="2">
         <v>116</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -6434,31 +6434,31 @@
         <v>121</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I68">
         <v>121</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K68" s="2">
         <v>121</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M68" s="2">
         <v>121</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O68" s="2">
         <v>121</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -6467,31 +6467,31 @@
         <v>122</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I69">
         <v>122</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K69" s="2">
         <v>122</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M69" s="2">
         <v>122</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O69" s="2">
         <v>122</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -6500,31 +6500,31 @@
         <v>123</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I70">
         <v>123</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K70" s="2">
         <v>123</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M70" s="2">
         <v>123</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O70" s="2">
         <v>123</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -6533,31 +6533,31 @@
         <v>124</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I71">
         <v>124</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K71" s="2">
         <v>124</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M71" s="2">
         <v>124</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O71" s="2">
         <v>124</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -6566,31 +6566,31 @@
         <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I72">
         <v>125</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K72" s="2">
         <v>125</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M72" s="2">
         <v>125</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O72" s="2">
         <v>125</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -6599,31 +6599,31 @@
         <v>126</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I73">
         <v>126</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K73" s="2">
         <v>126</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M73" s="2">
         <v>126</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O73" s="2">
         <v>126</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -6632,31 +6632,31 @@
         <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I74">
         <v>131</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K74" s="2">
         <v>131</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M74" s="2">
         <v>131</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O74" s="2">
         <v>131</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -6665,31 +6665,31 @@
         <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I75">
         <v>132</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K75" s="2">
         <v>132</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M75" s="2">
         <v>132</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O75" s="2">
         <v>132</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -6698,31 +6698,31 @@
         <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I76">
         <v>133</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K76" s="2">
         <v>133</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M76" s="2">
         <v>133</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O76" s="2">
         <v>133</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -6731,31 +6731,31 @@
         <v>134</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I77">
         <v>134</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K77" s="2">
         <v>134</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M77" s="2">
         <v>134</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O77" s="2">
         <v>134</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -6764,31 +6764,31 @@
         <v>135</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78">
         <v>135</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K78" s="2">
         <v>135</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M78" s="2">
         <v>135</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O78" s="2">
         <v>135</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -6797,31 +6797,31 @@
         <v>136</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I79">
         <v>136</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K79" s="2">
         <v>136</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M79" s="2">
         <v>136</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O79" s="2">
         <v>136</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -6830,31 +6830,31 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I80">
         <v>141</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K80" s="2">
         <v>141</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M80" s="2">
         <v>141</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O80" s="2">
         <v>141</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -6863,31 +6863,31 @@
         <v>142</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I81">
         <v>142</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K81" s="2">
         <v>142</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M81" s="2">
         <v>142</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O81" s="2">
         <v>142</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -6896,31 +6896,31 @@
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I82">
         <v>143</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K82" s="2">
         <v>143</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M82" s="2">
         <v>143</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O82" s="2">
         <v>143</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -6929,31 +6929,31 @@
         <v>144</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I83">
         <v>144</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K83" s="2">
         <v>144</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M83" s="2">
         <v>144</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O83" s="2">
         <v>144</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -6962,31 +6962,31 @@
         <v>145</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I84">
         <v>145</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K84" s="2">
         <v>145</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M84" s="2">
         <v>145</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O84" s="2">
         <v>145</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -6995,31 +6995,31 @@
         <v>146</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I85">
         <v>146</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K85" s="2">
         <v>146</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M85" s="2">
         <v>146</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O85" s="2">
         <v>146</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -7028,31 +7028,31 @@
         <v>151</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I86">
         <v>151</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K86" s="2">
         <v>151</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M86" s="2">
         <v>151</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O86" s="2">
         <v>151</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -7061,31 +7061,31 @@
         <v>152</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I87">
         <v>152</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K87" s="2">
         <v>152</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M87" s="2">
         <v>152</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O87" s="2">
         <v>152</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -7094,31 +7094,31 @@
         <v>153</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I88">
         <v>153</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K88" s="2">
         <v>153</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M88" s="2">
         <v>153</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O88" s="2">
         <v>153</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -7127,31 +7127,31 @@
         <v>154</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I89">
         <v>154</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K89" s="2">
         <v>154</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M89" s="2">
         <v>154</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O89" s="2">
         <v>154</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -7160,31 +7160,31 @@
         <v>155</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I90">
         <v>155</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K90" s="2">
         <v>155</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M90" s="2">
         <v>155</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O90" s="2">
         <v>155</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -7193,31 +7193,31 @@
         <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I91">
         <v>156</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K91" s="2">
         <v>156</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M91" s="2">
         <v>156</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O91" s="2">
         <v>156</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7247,42 +7247,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7290,68 +7290,68 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B14" t="s">
         <v>705</v>
@@ -7371,7 +7371,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -7422,42 +7422,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/templates2/chord_config.xlsx
+++ b/templates2/chord_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\CHORD_MAKER\templates2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C9317F-B490-46A1-BA13-D27F06F3446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293B89D-91C7-4188-8F4E-D8B59F5BD96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="705">
   <si>
     <t>1FO1</t>
   </si>
@@ -2153,9 +2153,6 @@
   </si>
   <si>
     <t>5,6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>orange_metal</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2753,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7354,7 +7351,7 @@
         <v>703</v>
       </c>
       <c r="B14" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
